--- a/natmiOut/OldD4/LR-pairs_lrc2p/Adam17-Itgb1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Adam17-Itgb1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.3350772234692</v>
+        <v>15.90202066666667</v>
       </c>
       <c r="H2">
-        <v>14.3350772234692</v>
+        <v>47.706062</v>
       </c>
       <c r="I2">
-        <v>0.09736834885608589</v>
+        <v>0.1000095542059894</v>
       </c>
       <c r="J2">
-        <v>0.09736834885608589</v>
+        <v>0.10228350994604</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N2">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O2">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P2">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q2">
-        <v>1773.867294889243</v>
+        <v>2197.96275149843</v>
       </c>
       <c r="R2">
-        <v>1773.867294889243</v>
+        <v>19781.66476348587</v>
       </c>
       <c r="S2">
-        <v>0.02056640205401652</v>
+        <v>0.02249438547246829</v>
       </c>
       <c r="T2">
-        <v>0.02056640205401652</v>
+        <v>0.02533152388282936</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.3350772234692</v>
+        <v>15.90202066666667</v>
       </c>
       <c r="H3">
-        <v>14.3350772234692</v>
+        <v>47.706062</v>
       </c>
       <c r="I3">
-        <v>0.09736834885608589</v>
+        <v>0.1000095542059894</v>
       </c>
       <c r="J3">
-        <v>0.09736834885608589</v>
+        <v>0.10228350994604</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N3">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P3">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q3">
-        <v>1986.672836512058</v>
+        <v>2352.136732556153</v>
       </c>
       <c r="R3">
-        <v>1986.672836512058</v>
+        <v>21169.23059300538</v>
       </c>
       <c r="S3">
-        <v>0.02303369165394729</v>
+        <v>0.02407223248437654</v>
       </c>
       <c r="T3">
-        <v>0.02303369165394729</v>
+        <v>0.02710837923700317</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.3350772234692</v>
+        <v>15.90202066666667</v>
       </c>
       <c r="H4">
-        <v>14.3350772234692</v>
+        <v>47.706062</v>
       </c>
       <c r="I4">
-        <v>0.09736834885608589</v>
+        <v>0.1000095542059894</v>
       </c>
       <c r="J4">
-        <v>0.09736834885608589</v>
+        <v>0.10228350994604</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N4">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O4">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P4">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q4">
-        <v>1022.089454722907</v>
+        <v>1181.084695802092</v>
       </c>
       <c r="R4">
-        <v>1022.089454722907</v>
+        <v>10629.76226221882</v>
       </c>
       <c r="S4">
-        <v>0.01185021152459678</v>
+        <v>0.01208745435057668</v>
       </c>
       <c r="T4">
-        <v>0.01185021152459678</v>
+        <v>0.01361200282350476</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.3350772234692</v>
+        <v>15.90202066666667</v>
       </c>
       <c r="H5">
-        <v>14.3350772234692</v>
+        <v>47.706062</v>
       </c>
       <c r="I5">
-        <v>0.09736834885608589</v>
+        <v>0.1000095542059894</v>
       </c>
       <c r="J5">
-        <v>0.09736834885608589</v>
+        <v>0.10228350994604</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N5">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O5">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P5">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q5">
-        <v>1215.999037570319</v>
+        <v>1349.397030917709</v>
       </c>
       <c r="R5">
-        <v>1215.999037570319</v>
+        <v>12144.57327825938</v>
       </c>
       <c r="S5">
-        <v>0.01409841941165606</v>
+        <v>0.0138099960739434</v>
       </c>
       <c r="T5">
-        <v>0.01409841941165606</v>
+        <v>0.01555180272859842</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.3350772234692</v>
+        <v>15.90202066666667</v>
       </c>
       <c r="H6">
-        <v>14.3350772234692</v>
+        <v>47.706062</v>
       </c>
       <c r="I6">
-        <v>0.09736834885608589</v>
+        <v>0.1000095542059894</v>
       </c>
       <c r="J6">
-        <v>0.09736834885608589</v>
+        <v>0.10228350994604</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N6">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O6">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P6">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q6">
-        <v>2399.463037624819</v>
+        <v>2691.513928600307</v>
       </c>
       <c r="R6">
-        <v>2399.463037624819</v>
+        <v>16149.08357160184</v>
       </c>
       <c r="S6">
-        <v>0.02781962421186925</v>
+        <v>0.02754548582462455</v>
       </c>
       <c r="T6">
-        <v>0.02781962421186925</v>
+        <v>0.0206798012741043</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>22.2320546928951</v>
+        <v>24.435136</v>
       </c>
       <c r="H7">
-        <v>22.2320546928951</v>
+        <v>73.305408</v>
       </c>
       <c r="I7">
-        <v>0.1510071012091498</v>
+        <v>0.1536752535761215</v>
       </c>
       <c r="J7">
-        <v>0.1510071012091498</v>
+        <v>0.1571694269853278</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N7">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O7">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P7">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q7">
-        <v>2751.063988225349</v>
+        <v>3377.402147915605</v>
       </c>
       <c r="R7">
-        <v>2751.063988225349</v>
+        <v>30396.61933124045</v>
       </c>
       <c r="S7">
-        <v>0.03189612223032806</v>
+        <v>0.03456500150376194</v>
       </c>
       <c r="T7">
-        <v>0.03189612223032806</v>
+        <v>0.03892456462854867</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>22.2320546928951</v>
+        <v>24.435136</v>
       </c>
       <c r="H8">
-        <v>22.2320546928951</v>
+        <v>73.305408</v>
       </c>
       <c r="I8">
-        <v>0.1510071012091498</v>
+        <v>0.1536752535761215</v>
       </c>
       <c r="J8">
-        <v>0.1510071012091498</v>
+        <v>0.1571694269853278</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N8">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P8">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q8">
-        <v>3081.100887682289</v>
+        <v>3614.306769898879</v>
       </c>
       <c r="R8">
-        <v>3081.100887682289</v>
+        <v>32528.76092908992</v>
       </c>
       <c r="S8">
-        <v>0.03572260439528407</v>
+        <v>0.03698953025588395</v>
       </c>
       <c r="T8">
-        <v>0.03572260439528407</v>
+        <v>0.04165489073877542</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>22.2320546928951</v>
+        <v>24.435136</v>
       </c>
       <c r="H9">
-        <v>22.2320546928951</v>
+        <v>73.305408</v>
       </c>
       <c r="I9">
-        <v>0.1510071012091498</v>
+        <v>0.1536752535761215</v>
       </c>
       <c r="J9">
-        <v>0.1510071012091498</v>
+        <v>0.1571694269853278</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N9">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O9">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P9">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q9">
-        <v>1585.143093699486</v>
+        <v>1814.861505615957</v>
       </c>
       <c r="R9">
-        <v>1585.143093699486</v>
+        <v>16333.75355054362</v>
       </c>
       <c r="S9">
-        <v>0.0183783140216285</v>
+        <v>0.01857365155921691</v>
       </c>
       <c r="T9">
-        <v>0.0183783140216285</v>
+        <v>0.02091628147119266</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.2320546928951</v>
+        <v>24.435136</v>
       </c>
       <c r="H10">
-        <v>22.2320546928951</v>
+        <v>73.305408</v>
       </c>
       <c r="I10">
-        <v>0.1510071012091498</v>
+        <v>0.1536752535761215</v>
       </c>
       <c r="J10">
-        <v>0.1510071012091498</v>
+        <v>0.1571694269853278</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N10">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O10">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P10">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q10">
-        <v>1885.874536170002</v>
+        <v>2073.491203390699</v>
       </c>
       <c r="R10">
-        <v>1885.874536170002</v>
+        <v>18661.42083051629</v>
       </c>
       <c r="S10">
-        <v>0.02186502566795781</v>
+        <v>0.02122051903338446</v>
       </c>
       <c r="T10">
-        <v>0.02186502566795781</v>
+        <v>0.02389698911126683</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>22.2320546928951</v>
+        <v>24.435136</v>
       </c>
       <c r="H11">
-        <v>22.2320546928951</v>
+        <v>73.305408</v>
       </c>
       <c r="I11">
-        <v>0.1510071012091498</v>
+        <v>0.1536752535761215</v>
       </c>
       <c r="J11">
-        <v>0.1510071012091498</v>
+        <v>0.1571694269853278</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N11">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O11">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P11">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q11">
-        <v>3721.290974192972</v>
+        <v>4135.795712371489</v>
       </c>
       <c r="R11">
-        <v>3721.290974192972</v>
+        <v>24814.77427422893</v>
       </c>
       <c r="S11">
-        <v>0.04314503489395134</v>
+        <v>0.04232655122387421</v>
       </c>
       <c r="T11">
-        <v>0.04314503489395134</v>
+        <v>0.03177670103554419</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>47.7310968388851</v>
+        <v>55.076396</v>
       </c>
       <c r="H12">
-        <v>47.7310968388851</v>
+        <v>165.229188</v>
       </c>
       <c r="I12">
-        <v>0.3242046077493995</v>
+        <v>0.3463815024953772</v>
       </c>
       <c r="J12">
-        <v>0.3242046077493995</v>
+        <v>0.3542573120827729</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N12">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O12">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P12">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q12">
-        <v>5906.395222836417</v>
+        <v>7612.609078576458</v>
       </c>
       <c r="R12">
-        <v>5906.395222836417</v>
+        <v>68513.48170718813</v>
       </c>
       <c r="S12">
-        <v>0.06847936099434136</v>
+        <v>0.07790894679537645</v>
       </c>
       <c r="T12">
-        <v>0.06847936099434136</v>
+        <v>0.08773533061610705</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>47.7310968388851</v>
+        <v>55.076396</v>
       </c>
       <c r="H13">
-        <v>47.7310968388851</v>
+        <v>165.229188</v>
       </c>
       <c r="I13">
-        <v>0.3242046077493995</v>
+        <v>0.3463815024953772</v>
       </c>
       <c r="J13">
-        <v>0.3242046077493995</v>
+        <v>0.3542573120827729</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N13">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P13">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q13">
-        <v>6614.967751376433</v>
+        <v>8146.588213154678</v>
       </c>
       <c r="R13">
-        <v>6614.967751376433</v>
+        <v>73319.29391839211</v>
       </c>
       <c r="S13">
-        <v>0.07669462464364098</v>
+        <v>0.08337379485946161</v>
       </c>
       <c r="T13">
-        <v>0.07669462464364098</v>
+        <v>0.0938894409126893</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>47.7310968388851</v>
+        <v>55.076396</v>
       </c>
       <c r="H14">
-        <v>47.7310968388851</v>
+        <v>165.229188</v>
       </c>
       <c r="I14">
-        <v>0.3242046077493995</v>
+        <v>0.3463815024953772</v>
       </c>
       <c r="J14">
-        <v>0.3242046077493995</v>
+        <v>0.3542573120827729</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N14">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O14">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P14">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q14">
-        <v>3403.22203925846</v>
+        <v>4090.66808420713</v>
       </c>
       <c r="R14">
-        <v>3403.22203925846</v>
+        <v>36816.01275786417</v>
       </c>
       <c r="S14">
-        <v>0.03945731055538156</v>
+        <v>0.04186470615270763</v>
       </c>
       <c r="T14">
-        <v>0.03945731055538156</v>
+        <v>0.04714495557359982</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>47.7310968388851</v>
+        <v>55.076396</v>
       </c>
       <c r="H15">
-        <v>47.7310968388851</v>
+        <v>165.229188</v>
       </c>
       <c r="I15">
-        <v>0.3242046077493995</v>
+        <v>0.3463815024953772</v>
       </c>
       <c r="J15">
-        <v>0.3242046077493995</v>
+        <v>0.3542573120827729</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N15">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O15">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P15">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q15">
-        <v>4048.877234036526</v>
+        <v>4673.615183498986</v>
       </c>
       <c r="R15">
-        <v>4048.877234036526</v>
+        <v>42062.53665149087</v>
       </c>
       <c r="S15">
-        <v>0.04694310408814929</v>
+        <v>0.04783070205167754</v>
       </c>
       <c r="T15">
-        <v>0.04694310408814929</v>
+        <v>0.05386342173417083</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>47.7310968388851</v>
+        <v>55.076396</v>
       </c>
       <c r="H16">
-        <v>47.7310968388851</v>
+        <v>165.229188</v>
       </c>
       <c r="I16">
-        <v>0.3242046077493995</v>
+        <v>0.3463815024953772</v>
       </c>
       <c r="J16">
-        <v>0.3242046077493995</v>
+        <v>0.3542573120827729</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N16">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O16">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P16">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q16">
-        <v>7989.42348372496</v>
+        <v>9322.015741171817</v>
       </c>
       <c r="R16">
-        <v>7989.42348372496</v>
+        <v>55932.09444703091</v>
       </c>
       <c r="S16">
-        <v>0.09263020746788631</v>
+        <v>0.09540335263615396</v>
       </c>
       <c r="T16">
-        <v>0.09263020746788631</v>
+        <v>0.07162416324620588</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>52.9131098697101</v>
+        <v>52.98651633333333</v>
       </c>
       <c r="H17">
-        <v>52.9131098697101</v>
+        <v>158.959549</v>
       </c>
       <c r="I17">
-        <v>0.3594024685419515</v>
+        <v>0.3332380197777619</v>
       </c>
       <c r="J17">
-        <v>0.3594024685419515</v>
+        <v>0.3408149809380521</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N17">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O17">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P17">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q17">
-        <v>6547.633724294992</v>
+        <v>7323.747822593061</v>
       </c>
       <c r="R17">
-        <v>6547.633724294992</v>
+        <v>65913.73040333755</v>
       </c>
       <c r="S17">
-        <v>0.07591394692504118</v>
+        <v>0.0749526835758464</v>
       </c>
       <c r="T17">
-        <v>0.07591394692504118</v>
+        <v>0.08440620422405193</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>52.9131098697101</v>
+        <v>52.98651633333333</v>
       </c>
       <c r="H18">
-        <v>52.9131098697101</v>
+        <v>158.959549</v>
       </c>
       <c r="I18">
-        <v>0.3594024685419515</v>
+        <v>0.3332380197777619</v>
       </c>
       <c r="J18">
-        <v>0.3594024685419515</v>
+        <v>0.3408149809380521</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N18">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P18">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q18">
-        <v>7333.133713533703</v>
+        <v>7837.465062479056</v>
       </c>
       <c r="R18">
-        <v>7333.133713533703</v>
+        <v>70537.18556231151</v>
       </c>
       <c r="S18">
-        <v>0.08502111556085375</v>
+        <v>0.08021016740261738</v>
       </c>
       <c r="T18">
-        <v>0.08502111556085375</v>
+        <v>0.09032679615506699</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>52.9131098697101</v>
+        <v>52.98651633333333</v>
       </c>
       <c r="H19">
-        <v>52.9131098697101</v>
+        <v>158.959549</v>
       </c>
       <c r="I19">
-        <v>0.3594024685419515</v>
+        <v>0.3332380197777619</v>
       </c>
       <c r="J19">
-        <v>0.3594024685419515</v>
+        <v>0.3408149809380521</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N19">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O19">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P19">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q19">
-        <v>3772.699007570258</v>
+        <v>3935.447251452083</v>
       </c>
       <c r="R19">
-        <v>3772.699007570258</v>
+        <v>35419.02526306875</v>
       </c>
       <c r="S19">
-        <v>0.04374106498385139</v>
+        <v>0.04027614545350142</v>
       </c>
       <c r="T19">
-        <v>0.04374106498385139</v>
+        <v>0.04535603525210367</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>52.9131098697101</v>
+        <v>52.98651633333333</v>
       </c>
       <c r="H20">
-        <v>52.9131098697101</v>
+        <v>158.959549</v>
       </c>
       <c r="I20">
-        <v>0.3594024685419515</v>
+        <v>0.3332380197777619</v>
       </c>
       <c r="J20">
-        <v>0.3594024685419515</v>
+        <v>0.3408149809380521</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N20">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O20">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P20">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q20">
-        <v>4488.450928682803</v>
+        <v>4496.274361455744</v>
       </c>
       <c r="R20">
-        <v>4488.450928682803</v>
+        <v>40466.4692531017</v>
       </c>
       <c r="S20">
-        <v>0.05203956725792056</v>
+        <v>0.04601576100760138</v>
       </c>
       <c r="T20">
-        <v>0.05203956725792056</v>
+        <v>0.05181956850420757</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>52.9131098697101</v>
+        <v>52.98651633333333</v>
       </c>
       <c r="H21">
-        <v>52.9131098697101</v>
+        <v>158.959549</v>
       </c>
       <c r="I21">
-        <v>0.3594024685419515</v>
+        <v>0.3332380197777619</v>
       </c>
       <c r="J21">
-        <v>0.3594024685419515</v>
+        <v>0.3408149809380521</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N21">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O21">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P21">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q21">
-        <v>8856.809723374779</v>
+        <v>8968.290868726977</v>
       </c>
       <c r="R21">
-        <v>8856.809723374779</v>
+        <v>53809.74521236186</v>
       </c>
       <c r="S21">
-        <v>0.1026867738142846</v>
+        <v>0.09178326233819534</v>
       </c>
       <c r="T21">
-        <v>0.1026867738142846</v>
+        <v>0.06890637680262196</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.0138879695367</v>
+        <v>10.604946</v>
       </c>
       <c r="H22">
-        <v>10.0138879695367</v>
+        <v>21.209892</v>
       </c>
       <c r="I22">
-        <v>0.06801747364341333</v>
+        <v>0.06669566994474985</v>
       </c>
       <c r="J22">
-        <v>0.06801747364341333</v>
+        <v>0.04547477004780722</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N22">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O22">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P22">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q22">
-        <v>1239.149820188213</v>
+        <v>1465.805936129392</v>
       </c>
       <c r="R22">
-        <v>1239.149820188213</v>
+        <v>8794.835616776352</v>
       </c>
       <c r="S22">
-        <v>0.01436683199503055</v>
+        <v>0.01500134783114422</v>
       </c>
       <c r="T22">
-        <v>0.01436683199503055</v>
+        <v>0.01126227701943269</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.0138879695367</v>
+        <v>10.604946</v>
       </c>
       <c r="H23">
-        <v>10.0138879695367</v>
+        <v>21.209892</v>
       </c>
       <c r="I23">
-        <v>0.06801747364341333</v>
+        <v>0.06669566994474985</v>
       </c>
       <c r="J23">
-        <v>0.06801747364341333</v>
+        <v>0.04547477004780722</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N23">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O23">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P23">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q23">
-        <v>1387.806909360957</v>
+        <v>1568.62348227618</v>
       </c>
       <c r="R23">
-        <v>1387.806909360957</v>
+        <v>9411.740893657079</v>
       </c>
       <c r="S23">
-        <v>0.01609037776021551</v>
+        <v>0.0160536029318198</v>
       </c>
       <c r="T23">
-        <v>0.01609037776021551</v>
+        <v>0.01205225859790899</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.0138879695367</v>
+        <v>10.604946</v>
       </c>
       <c r="H24">
-        <v>10.0138879695367</v>
+        <v>21.209892</v>
       </c>
       <c r="I24">
-        <v>0.06801747364341333</v>
+        <v>0.06669566994474985</v>
       </c>
       <c r="J24">
-        <v>0.06801747364341333</v>
+        <v>0.04547477004780722</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N24">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O24">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P24">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q24">
-        <v>713.9891285470923</v>
+        <v>787.6570960986639</v>
       </c>
       <c r="R24">
-        <v>713.9891285470923</v>
+        <v>4725.942576591984</v>
       </c>
       <c r="S24">
-        <v>0.008278064273580982</v>
+        <v>0.008061038490160689</v>
       </c>
       <c r="T24">
-        <v>0.008278064273580982</v>
+        <v>0.00605183277945329</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>10.0138879695367</v>
+        <v>10.604946</v>
       </c>
       <c r="H25">
-        <v>10.0138879695367</v>
+        <v>21.209892</v>
       </c>
       <c r="I25">
-        <v>0.06801747364341333</v>
+        <v>0.06669566994474985</v>
       </c>
       <c r="J25">
-        <v>0.06801747364341333</v>
+        <v>0.04547477004780722</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N25">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O25">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P25">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q25">
-        <v>849.4462878342782</v>
+        <v>899.9034113595022</v>
       </c>
       <c r="R25">
-        <v>849.4462878342782</v>
+        <v>5399.420468157013</v>
       </c>
       <c r="S25">
-        <v>0.009848568677727614</v>
+        <v>0.009209789478602223</v>
       </c>
       <c r="T25">
-        <v>0.009848568677727614</v>
+        <v>0.006914258743026783</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>10.0138879695367</v>
+        <v>10.604946</v>
       </c>
       <c r="H26">
-        <v>10.0138879695367</v>
+        <v>21.209892</v>
       </c>
       <c r="I26">
-        <v>0.06801747364341333</v>
+        <v>0.06669566994474985</v>
       </c>
       <c r="J26">
-        <v>0.06801747364341333</v>
+        <v>0.04547477004780722</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N26">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O26">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P26">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q26">
-        <v>1676.164953369132</v>
+        <v>1794.951752948343</v>
       </c>
       <c r="R26">
-        <v>1676.164953369132</v>
+        <v>7179.807011793373</v>
       </c>
       <c r="S26">
-        <v>0.01943363093685869</v>
+        <v>0.01836989121302291</v>
       </c>
       <c r="T26">
-        <v>0.01943363093685869</v>
+        <v>0.009194142907985458</v>
       </c>
     </row>
   </sheetData>
